--- a/neural_network/analysis/neural_network_model_param_manipulation_analysis.xlsx
+++ b/neural_network/analysis/neural_network_model_param_manipulation_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbenton2\Desktop\God Folder\publications\soc_learning\soc_non_category\soc_analysis\neural_network\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDAEC7D-B81D-4576-AA01-641CB3A8FA25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1297AA5A-B653-41A5-9B09-90E802F5F43B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7980" xr2:uid="{746467A6-7B34-45D7-BF50-E131F56EAC7A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>MM</t>
+  </si>
+  <si>
+    <t>memory_check</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EDCF1F-0EEE-4538-A681-76F03D9B5378}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,9 +427,10 @@
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +446,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -459,8 +466,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -476,8 +486,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -493,8 +506,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -510,8 +526,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -527,8 +546,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -544,8 +566,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -561,8 +586,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -578,8 +606,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -595,8 +626,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -612,8 +646,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -629,8 +666,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -646,8 +686,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -663,8 +706,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -680,8 +726,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -697,8 +746,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -714,8 +766,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -731,8 +786,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -748,8 +806,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -765,8 +826,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -782,8 +846,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -799,8 +866,11 @@
       <c r="E22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -816,8 +886,11 @@
       <c r="E23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -833,8 +906,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -850,8 +926,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -867,8 +946,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -884,8 +966,11 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -901,8 +986,11 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -918,8 +1006,11 @@
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -935,8 +1026,11 @@
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -952,8 +1046,11 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -969,8 +1066,11 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -986,8 +1086,11 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1003,8 +1106,11 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1020,8 +1126,11 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1037,8 +1146,11 @@
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1054,8 +1166,11 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1071,8 +1186,11 @@
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1088,8 +1206,11 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1105,8 +1226,11 @@
       <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1122,8 +1246,11 @@
       <c r="E41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1139,8 +1266,11 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1156,8 +1286,11 @@
       <c r="E43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1173,8 +1306,11 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1190,8 +1326,11 @@
       <c r="E45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1207,8 +1346,11 @@
       <c r="E46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1224,8 +1366,11 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1241,8 +1386,11 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1256,6 +1404,9 @@
         <v>11</v>
       </c>
       <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
         <v>0</v>
       </c>
     </row>

--- a/neural_network/analysis/neural_network_model_param_manipulation_analysis.xlsx
+++ b/neural_network/analysis/neural_network_model_param_manipulation_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20356"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbenton2\Desktop\God Folder\publications\soc_learning\soc_non_category\soc_analysis\neural_network\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1297AA5A-B653-41A5-9B09-90E802F5F43B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50510501-3085-423B-8445-EA536D7D30C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7980" xr2:uid="{746467A6-7B34-45D7-BF50-E131F56EAC7A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>test_choice</t>
-  </si>
-  <si>
-    <t>network_age</t>
   </si>
   <si>
     <t>condition</t>
@@ -64,6 +61,12 @@
   </si>
   <si>
     <t>memory_check</t>
+  </si>
+  <si>
+    <t>mc_status</t>
+  </si>
+  <si>
+    <t>LR</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EDCF1F-0EEE-4538-A681-76F03D9B5378}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,10 +438,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -447,7 +450,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -458,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -478,10 +481,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -498,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -518,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -538,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -558,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -578,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -598,10 +601,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -618,10 +621,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -638,10 +641,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -658,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -678,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -698,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -718,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -738,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -758,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
         <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -778,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -798,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -818,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -838,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -858,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -878,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -898,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -918,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -935,13 +938,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -955,19 +958,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -975,13 +978,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -995,13 +998,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1015,16 +1018,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1035,19 +1038,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1055,16 +1058,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1075,13 +1078,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1098,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1118,16 +1121,16 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1138,16 +1141,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1158,13 +1161,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1178,16 +1181,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1198,16 +1201,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1218,16 +1221,16 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1238,16 +1241,16 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,16 +1261,16 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1278,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1298,13 +1301,13 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1318,13 +1321,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1338,13 +1341,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1358,13 +1361,13 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1378,16 +1381,16 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
         <v>9</v>
       </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1398,15 +1401,335 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
         <v>9</v>
       </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
         <v>0</v>
       </c>
     </row>
